--- a/input/host_strains.xlsx
+++ b/input/host_strains.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="16080" windowHeight="7780"/>
+    <workbookView activeTab="0" windowWidth="18480" windowHeight="8080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24" count="24">
   <si>
     <t>Candidatus Pelagibacter ubique HTCC1062</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Pseudomonadota;c__Alphaproteobacteria;o__Pelagibacterales;f__Pelagibacteraceae;g__Pelagibacter;s__Pelagibacter ubique</t>
-  </si>
-  <si>
     <t>Ga0063588_100037</t>
   </si>
   <si>
@@ -42,27 +39,15 @@
     <t>Prochlorococcus sp. MED4</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A pastoris</t>
-  </si>
-  <si>
     <t>Prochlorococcus sp. MIT9302</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_M</t>
-  </si>
-  <si>
     <t>Prochlorococcus sp. MIT9312</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_L</t>
-  </si>
-  <si>
     <t>Prochlorococcus sp. MIT9515</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_P</t>
-  </si>
-  <si>
     <t>Prochlorococcus sp. NATL1A</t>
   </si>
   <si>
@@ -75,21 +60,12 @@
     <t>Prochlorococcus sp. SS120</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus;s__Prochlorococcus marinus</t>
-  </si>
-  <si>
     <t>Synechococcus sp. AG-670-B23</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp003209165</t>
-  </si>
-  <si>
     <t>Synechococcus sp. CB0101</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Vulcanococcus;s__Vulcanococcus sp000179235</t>
-  </si>
-  <si>
     <t>Synechococcus sp. CB0208</t>
   </si>
   <si>
@@ -99,40 +75,28 @@
     <t>Synechococcus sp. CC9605</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000012625</t>
-  </si>
-  <si>
     <t>Synechococcus sp. KSHK05</t>
   </si>
   <si>
     <t>Synechococcus sp. WH7803</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000063505</t>
-  </si>
-  <si>
     <t>Synechococcus sp. WH7805</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000153285</t>
-  </si>
-  <si>
     <t>Synechococcus sp. WH8101</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp004209775</t>
-  </si>
-  <si>
     <t>Synechococcus sp. WH8109</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000161795</t>
-  </si>
-  <si>
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Pseudomonadota;c__Gammaproteobacteria;o__Enterobacterales;f__Enterobacteriaceae;g__Escherichia;s__Escherichia coli</t>
+    <t>Synechococcus sp. SR-C1</t>
+  </si>
+  <si>
+    <t>Synechococcus sp. KCZYR4S1</t>
   </si>
 </sst>
 </file>
@@ -195,7 +159,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="B26" sqref="B26"/>
@@ -204,10 +168,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" style="0" width="40.283293269230775" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="2" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1" t="inlineStr">
         <is>
           <t>Strain</t>
@@ -218,214 +182,268 @@
           <t>Taxonomy</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.5">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Pseudomonadota;c__Alphaproteobacteria;o__Pelagibacterales;f__Pelagibacteraceae;g__Pelagibacter;s__Pelagibacter ubique</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="13.5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.5">
-      <c r="A4" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A pastoris</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prochlorococcus sp. MIT9215</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prochlorococcus sp. MIT9215</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.5">
-      <c r="A6" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_L</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_P</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.5">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="13.5">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.5">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus;s__Prochlorococcus marinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.5">
-      <c r="A9" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp003209165</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.5">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Synechococcus sp. BL107</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000153805</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.5">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Vulcanococcus;s__Vulcanococcus sp000179235</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.5">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.5">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.5">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="13.5">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000012625</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.5">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Synechococcus sp. CC9902</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000012505</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.5">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.5">
-      <c r="A12" t="s">
+    <row r="19" spans="1:3" ht="13.5">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Synechococcus sp. RCC307</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__RCC307;s__RCC307 sp000063525</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.5">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000063505</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.5">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.5">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Synechococcus sp. BL107</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000153805</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.5">
-      <c r="A14" t="s">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000153285</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.5">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp004209775</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.5">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Synechococcus sp. WH8102</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus marenigrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.5">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.5">
-      <c r="A15" t="s">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000161795</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.5">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Pseudomonadota;c__Gammaproteobacteria;o__Enterobacterales;f__Enterobacteriaceae;g__Escherichia;s__Escherichia coli</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.5">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5">
-      <c r="A16" t="s">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Genus uncertain</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.5">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Synechococcus sp. CC9902</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000012505</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Synechococcus sp. RCC307</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__RCC307;s__RCC307 sp000063525</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.5">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.5">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.5">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Synechococcus sp. WH8102</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus marenigrum</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="B27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -453,8 +471,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -481,8 +498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
